--- a/BalanceSheet/DG_bal.xlsx
+++ b/BalanceSheet/DG_bal.xlsx
@@ -510,19 +510,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-223566000.0</v>
+        <v>5247000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-636218000.0</v>
+        <v>5026000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-283945000.0</v>
+        <v>4391000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>567902000.0</v>
+        <v>4107000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-177777000.0</v>
+        <v>4677000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>4496377000.0</v>
@@ -1570,19 +1570,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-174210000.0</v>
+        <v>3614000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>358888000.0</v>
+        <v>3771000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>450792000.0</v>
+        <v>3401000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>110126000.0</v>
+        <v>2954000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3213000.0</v>
+        <v>2861000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>2844171000.0</v>
@@ -2674,19 +2674,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>23769000.0</v>
+        <v>711000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-3286000.0</v>
+        <v>687000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-10291000.0</v>
+        <v>690000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>24784000.0</v>
+        <v>700000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>41099000.0</v>
+        <v>675000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>634041000.0</v>
